--- a/migforecasting/cities15-16/1/d11.xlsx
+++ b/migforecasting/cities15-16/1/d11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities15-16\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -801,9 +801,6 @@
     <t>Пушкино</t>
   </si>
   <si>
-    <t>Рамен-ское</t>
-  </si>
-  <si>
     <t>Реутов</t>
   </si>
   <si>
@@ -814,18 +811,10 @@
   </si>
   <si>
     <t>Щелково</t>
-  </si>
-  <si>
-    <t>Орехово-
-Зуево</t>
   </si>
   <si>
     <t>Сергиев 
 Посад</t>
-  </si>
-  <si>
-    <t>Электро-
-сталь</t>
   </si>
   <si>
     <r>
@@ -1194,6 +1183,15 @@
   </si>
   <si>
     <t>Торговля</t>
+  </si>
+  <si>
+    <t>Орехово-Зуево</t>
+  </si>
+  <si>
+    <t>Раменское</t>
+  </si>
+  <si>
+    <t>Электросталь</t>
   </si>
 </sst>
 </file>
@@ -1319,9 +1317,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1346,6 +1341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="X70" sqref="X70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1737,7 @@
         <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
         <v>234</v>
@@ -1748,25 +1746,25 @@
         <v>235</v>
       </c>
       <c r="Q2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R2" t="s">
         <v>236</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T2" t="s">
         <v>237</v>
       </c>
-      <c r="S2" t="s">
-        <v>242</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>238</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>239</v>
       </c>
-      <c r="V2" t="s">
-        <v>240</v>
-      </c>
       <c r="W2" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1944,37 +1942,37 @@
       <c r="L5" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>141.30000000000001</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>120.2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>293.8</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>107.1</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>109.7</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>96.6</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <v>105</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <v>126.6</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <v>240</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <v>123.5</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <v>158.5</v>
       </c>
       <c r="X5" s="3"/>
@@ -1992,17 +1990,17 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="3"/>
@@ -2048,37 +2046,37 @@
       <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>23.6</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>20.3</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>51.8</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>18.600000000000001</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <v>19</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <v>15.2</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <v>17.2</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <v>21</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <v>38.5</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <v>24.1</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <v>23.2</v>
       </c>
       <c r="X7" s="3"/>
@@ -2126,37 +2124,37 @@
       <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>10</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>8.1</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>21.9</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>8.5</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <v>6.1</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <v>7.4</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <v>8.9</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <v>15.8</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <v>11.9</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="7">
         <v>9.6</v>
       </c>
       <c r="X8" s="3"/>
@@ -2204,37 +2202,37 @@
       <c r="L9" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>84</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>68.400000000000006</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>172.8</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>60.6</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>65.400000000000006</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <v>59.3</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <v>58</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <v>72.2</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <v>147.19999999999999</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <v>70.099999999999994</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="7">
         <v>92.8</v>
       </c>
       <c r="X9" s="3"/>
@@ -2282,37 +2280,37 @@
       <c r="L10" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>33.700000000000003</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>31.5</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>69.2</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>27.9</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <v>25.3</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <v>22.1</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <v>29.8</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <v>33.4</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <v>54.3</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <v>29.3</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="7">
         <v>42.5</v>
       </c>
       <c r="X10" s="3"/>
@@ -2360,37 +2358,37 @@
       <c r="L11" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>13.6</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>16.399999999999999</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>15.4</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>17.100000000000001</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <v>11.4</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <v>15.7</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <v>14.6</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <v>11.4</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <v>16</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="7">
         <v>11</v>
       </c>
       <c r="X11" s="3"/>
@@ -2438,37 +2436,37 @@
       <c r="L12" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>11.6</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>16.3</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>13.2</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>16.399999999999999</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <v>12.9</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="7">
         <v>17.8</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <v>16.7</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="7">
         <v>10.5</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <v>12.7</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="7">
         <v>13.9</v>
       </c>
       <c r="X12" s="3"/>
@@ -2516,37 +2514,37 @@
       <c r="L13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>-2.7</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>3.2</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>-1</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <v>4.2</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="7">
         <v>-2.1</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="7">
         <v>-2.1</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="7">
         <v>0.9</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="7">
         <v>3.3</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="7">
         <v>-2.9</v>
       </c>
       <c r="X13" s="3"/>
@@ -2594,37 +2592,37 @@
       <c r="L14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>-1278</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>311</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>1679</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <v>-1004</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <v>2993</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="7">
         <v>2238</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="7">
         <v>-786</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <v>112</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="7">
         <v>7683</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="7">
         <v>4154</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14" s="7">
         <v>725</v>
       </c>
       <c r="X14" s="3"/>
@@ -2672,24 +2670,24 @@
       <c r="L15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2728,37 +2726,37 @@
       <c r="L16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>29.6</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>20.2</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <v>58.5</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <v>14.7</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <v>18.5</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="7">
         <v>17.2</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="7">
         <v>22</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="7">
         <v>21.2</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="7">
         <v>72.900000000000006</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="7">
         <v>25.9</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="7">
         <v>33.799999999999997</v>
       </c>
       <c r="X16" s="4"/>
@@ -2766,8 +2764,8 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
     </row>
     <row r="17" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2806,37 +2804,37 @@
       <c r="L17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="7">
         <v>399</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="T17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="7">
         <v>985</v>
       </c>
-      <c r="V17" s="8" t="s">
+      <c r="V17" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="7">
         <v>1032</v>
       </c>
       <c r="X17" s="4"/>
@@ -2844,8 +2842,8 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2857,64 +2855,64 @@
       <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>600</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>180</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>522</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>1380</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>1181</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <v>374</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>400</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>299</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="7">
         <v>1708</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <v>443</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>834</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="7">
         <v>430</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="7">
         <v>771</v>
       </c>
       <c r="X18" s="4"/>
@@ -2922,8 +2920,8 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3012,37 +3010,37 @@
       <c r="L20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>44220.800000000003</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>36390</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>49794.5</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <v>39049.599999999999</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>41068.400000000001</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>45486.6</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <v>35322.1</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>37143.599999999999</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="7">
         <v>62953.9</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="7">
         <v>47313.8</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="7">
         <v>38385.599999999999</v>
       </c>
       <c r="X20" s="3"/>
@@ -3084,37 +3082,37 @@
       <c r="L21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N21" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="P21" s="8" t="s">
+      <c r="N21" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="S21" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="T21" s="8" t="s">
+      <c r="S21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="U21" s="8" t="s">
+      <c r="U21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="V21" s="8" t="s">
+      <c r="V21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="W21" s="8">
+      <c r="W21" s="7">
         <v>13751.5</v>
       </c>
       <c r="X21" s="3"/>
@@ -3156,37 +3154,37 @@
       <c r="L22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N22" s="8">
+      <c r="M22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N22" s="7">
         <v>73.3</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <v>86.3</v>
       </c>
-      <c r="P22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S22" s="8">
+      <c r="P22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S22" s="7">
         <v>73.2</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W22" s="8">
+      <c r="T22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W22" s="7">
         <v>46.7</v>
       </c>
       <c r="X22" s="3"/>
@@ -3228,37 +3226,37 @@
       <c r="L23" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="N23" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="N23" s="8">
-        <v>23.3</v>
-      </c>
-      <c r="O23" s="8" t="s">
+      <c r="R23" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="T23" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="U23" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="V23" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="R23" s="8">
-        <v>28.6</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="T23" s="8">
-        <v>26.4</v>
-      </c>
-      <c r="U23" s="8">
-        <v>31.1</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="W23" s="8">
+      <c r="W23" s="7">
         <v>21.4</v>
       </c>
       <c r="X23" s="3"/>
@@ -3300,37 +3298,37 @@
       <c r="L24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <v>27</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>30</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <v>66</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="7">
         <v>25</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="7">
         <v>27</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <v>17</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="7">
         <v>30</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <v>38</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="7">
         <v>59</v>
       </c>
-      <c r="V24" s="8">
+      <c r="V24" s="7">
         <v>28</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W24" s="7">
         <v>34</v>
       </c>
       <c r="X24" s="3"/>
@@ -3351,17 +3349,17 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -3401,37 +3399,37 @@
       <c r="L26" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <v>6.2</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>5.4</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <v>12.9</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="7">
         <v>4.7</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <v>5.8</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="7">
         <v>5.3</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <v>6.7</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="7">
         <v>13</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="7">
         <v>7.1</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="7">
         <v>6.6</v>
       </c>
       <c r="X26" s="3"/>
@@ -3473,37 +3471,37 @@
       <c r="L27" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>6.1</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <v>12.2</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="7">
         <v>5.4</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S27" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="7">
         <v>6.4</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="7">
         <v>13.1</v>
       </c>
-      <c r="V27" s="8">
+      <c r="V27" s="7">
         <v>5.5</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W27" s="7">
         <v>6.6</v>
       </c>
       <c r="X27" s="3"/>
@@ -3524,17 +3522,17 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
       <c r="X28" s="3"/>
     </row>
     <row r="29" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
@@ -3574,37 +3572,37 @@
       <c r="L29" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>480</v>
       </c>
-      <c r="O29" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="P29" s="8" t="s">
+      <c r="O29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="7">
         <v>320</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="T29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="7">
         <v>1031</v>
       </c>
-      <c r="V29" s="8" t="s">
+      <c r="V29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W29" s="7">
         <v>693</v>
       </c>
       <c r="X29" s="3"/>
@@ -3646,37 +3644,37 @@
       <c r="L30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N30" s="8">
+      <c r="M30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="7">
         <v>39.9</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <v>30.3</v>
       </c>
-      <c r="P30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R30" s="8">
+      <c r="P30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" s="7">
         <v>34</v>
       </c>
-      <c r="S30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U30" s="8">
+      <c r="S30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U30" s="7">
         <v>43</v>
       </c>
-      <c r="V30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W30" s="8">
+      <c r="V30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W30" s="7">
         <v>43.7</v>
       </c>
       <c r="X30" s="3"/>
@@ -3697,17 +3695,17 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
@@ -3747,37 +3745,37 @@
       <c r="L32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <v>1226</v>
       </c>
-      <c r="O32" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="P32" s="8" t="s">
+      <c r="O32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="7">
         <v>520</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="T32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="7">
         <v>1601</v>
       </c>
-      <c r="V32" s="8" t="s">
+      <c r="V32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="7">
         <v>1451</v>
       </c>
       <c r="X32" s="3"/>
@@ -3819,37 +3817,37 @@
       <c r="L33" t="s">
         <v>136</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="N33" s="10">
+      <c r="M33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="9">
         <v>102</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="9">
         <v>55.9</v>
       </c>
-      <c r="P33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="R33" s="10">
+      <c r="P33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R33" s="9">
         <v>55.2</v>
       </c>
-      <c r="S33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="U33" s="10">
+      <c r="S33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U33" s="9">
         <v>66.7</v>
       </c>
-      <c r="V33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="W33" s="10">
+      <c r="V33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="W33" s="9">
         <v>91.6</v>
       </c>
     </row>
@@ -3860,2840 +3858,2840 @@
       <c r="B34" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="V34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="X34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="X34" s="10"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <f>A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
+        <v>269</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
     </row>
     <row r="36" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <f t="shared" ref="A36:A80" si="0">A35+1</f>
         <v>34</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="C36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="7">
         <v>0.5</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F36" s="8">
+      <c r="E36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="7">
         <v>0.7</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>1.2</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O36" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="P36" s="8" t="s">
+      <c r="O36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="7">
         <v>0.4</v>
       </c>
-      <c r="S36" s="8" t="s">
+      <c r="S36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="T36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U36" s="7">
         <v>1.9</v>
       </c>
-      <c r="V36" s="8" t="s">
+      <c r="V36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W36" s="7">
         <v>1.2</v>
       </c>
-      <c r="X36" s="11"/>
+      <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>32</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>49.5</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>48.7</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>60.1</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="7">
         <v>52.6</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N37" s="8">
+      <c r="I37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N37" s="7">
         <v>92.3</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="7">
         <v>54.6</v>
       </c>
-      <c r="P37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R37" s="8">
+      <c r="P37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" s="7">
         <v>37.799999999999997</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U37" s="8">
+      <c r="S37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U37" s="7">
         <v>79.8</v>
       </c>
-      <c r="V37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W37" s="8">
+      <c r="V37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W37" s="7">
         <v>77.599999999999994</v>
       </c>
-      <c r="X37" s="11"/>
+      <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="V38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W38" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="X38" s="11"/>
+      <c r="C38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="X38" s="10"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="11"/>
+        <v>270</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="10"/>
     </row>
     <row r="40" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D40" s="8">
+      <c r="C40" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="7">
         <v>1.9</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="E40" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" s="8">
+      <c r="G40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H40" s="7">
         <v>4.5</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N40" s="8">
+      <c r="I40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N40" s="7">
         <v>2.8</v>
       </c>
-      <c r="O40" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R40" s="8">
+      <c r="O40" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R40" s="7">
         <v>0.9</v>
       </c>
-      <c r="S40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U40" s="8">
+      <c r="S40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U40" s="7">
         <v>1.3</v>
       </c>
-      <c r="V40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W40" s="8">
+      <c r="V40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W40" s="7">
         <v>4.5</v>
       </c>
-      <c r="X40" s="11"/>
+      <c r="X40" s="10"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>145.4</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>193</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>265.7</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>98.5</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="7">
         <v>202.9</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N41" s="8">
+      <c r="I41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N41" s="7">
         <v>236.3</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="7">
         <v>111.1</v>
       </c>
-      <c r="P41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R41" s="8">
+      <c r="P41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" s="7">
         <v>96.6</v>
       </c>
-      <c r="S41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U41" s="8">
+      <c r="S41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U41" s="7">
         <v>54.7</v>
       </c>
-      <c r="V41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W41" s="8">
+      <c r="V41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W41" s="7">
         <v>284</v>
       </c>
-      <c r="X41" s="11"/>
+      <c r="X41" s="10"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>8130</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>504</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>336473</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>7813</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>51051</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="7">
         <v>100610</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>63248</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="7">
         <v>4977</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <v>11452</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="7">
         <v>9433</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <v>2500</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="7">
         <v>4911</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="7">
         <v>13282</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="7">
         <v>15934</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="7">
         <v>11</v>
       </c>
-      <c r="R42" s="8">
+      <c r="R42" s="7">
         <v>1277</v>
       </c>
-      <c r="S42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T42" s="8">
+      <c r="S42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T42" s="7">
         <v>15441</v>
       </c>
-      <c r="U42" s="8">
+      <c r="U42" s="7">
         <v>226775</v>
       </c>
-      <c r="V42" s="8">
+      <c r="V42" s="7">
         <v>3288</v>
       </c>
-      <c r="W42" s="8">
+      <c r="W42" s="7">
         <v>11762</v>
       </c>
-      <c r="X42" s="11"/>
+      <c r="X42" s="10"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="11"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="10"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>8130</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>504</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>316802</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <v>7234</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <v>46012</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="7">
         <v>80859</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <v>62933</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="7">
         <v>4977</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="7">
         <v>10651</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="7">
         <v>7486</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="7">
         <v>2500</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="7">
         <v>4844</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="7">
         <v>10038</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="7">
         <v>15828</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="7">
         <v>11</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44" s="7">
         <v>1039</v>
       </c>
-      <c r="S44" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T44" s="8">
+      <c r="S44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T44" s="7">
         <v>11894</v>
       </c>
-      <c r="U44" s="8">
+      <c r="U44" s="7">
         <v>153616</v>
       </c>
-      <c r="V44" s="8">
+      <c r="V44" s="7">
         <v>3173</v>
       </c>
-      <c r="W44" s="8">
+      <c r="W44" s="7">
         <v>11329</v>
       </c>
-      <c r="X44" s="11"/>
+      <c r="X44" s="10"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E45" s="8">
+      <c r="C45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" s="7">
         <v>19671</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <v>579</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <v>5039</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <v>19751</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <v>315</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="K45" s="8">
+      <c r="J45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" s="7">
         <v>801</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="7">
         <v>1947</v>
       </c>
-      <c r="M45" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N45" s="8">
+      <c r="M45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N45" s="7">
         <v>67</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="7">
         <v>3244</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="7">
         <v>106</v>
       </c>
-      <c r="Q45" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="R45" s="8">
+      <c r="Q45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="R45" s="7">
         <v>238</v>
       </c>
-      <c r="S45" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T45" s="8">
+      <c r="S45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T45" s="7">
         <v>3547</v>
       </c>
-      <c r="U45" s="8">
+      <c r="U45" s="7">
         <v>73159</v>
       </c>
-      <c r="V45" s="8">
+      <c r="V45" s="7">
         <v>115</v>
       </c>
-      <c r="W45" s="8">
+      <c r="W45" s="7">
         <v>433</v>
       </c>
-      <c r="X45" s="11"/>
+      <c r="X45" s="10"/>
     </row>
     <row r="46" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <v>732</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="7">
         <v>2740</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N46" s="8" t="s">
+      <c r="N46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="P46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="R46" s="8" t="s">
+      <c r="R46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="S46" s="8" t="s">
+      <c r="S46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="T46" s="8" t="s">
+      <c r="T46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="7">
         <v>3071</v>
       </c>
-      <c r="V46" s="8" t="s">
+      <c r="V46" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="W46" s="8">
+      <c r="W46" s="7">
         <v>1608</v>
       </c>
-      <c r="X46" s="11"/>
+      <c r="X46" s="10"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="8">
+      <c r="C47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="7">
         <v>419</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="8">
+      <c r="G47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="7">
         <v>1214</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U47" s="8">
+      <c r="I47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U47" s="7">
         <v>1499</v>
       </c>
-      <c r="V47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W47" s="8">
+      <c r="V47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W47" s="7">
         <v>716</v>
       </c>
-      <c r="X47" s="11"/>
+      <c r="X47" s="10"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="10"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>5641.8</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>6566.8</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>22993.9</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>3142</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <v>5506.3</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="7">
         <v>7151.8</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>18356.599999999999</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="7">
         <v>11835.9</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="7">
         <v>28439.1</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="7">
         <v>12135.8</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="7">
         <v>4137.2</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="7">
         <v>1662.7</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="7">
         <v>8998.2000000000007</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="7">
         <v>6017.6</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="7">
         <v>3845.6</v>
       </c>
-      <c r="R49" s="8">
+      <c r="R49" s="7">
         <v>8056.7</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S49" s="7">
         <v>4385.8</v>
       </c>
-      <c r="T49" s="8">
+      <c r="T49" s="7">
         <v>2675</v>
       </c>
-      <c r="U49" s="8">
+      <c r="U49" s="7">
         <v>18789.2</v>
       </c>
-      <c r="V49" s="8">
+      <c r="V49" s="7">
         <v>7697.9</v>
       </c>
-      <c r="W49" s="8">
+      <c r="W49" s="7">
         <v>6975.6</v>
       </c>
-      <c r="X49" s="11"/>
+      <c r="X49" s="10"/>
     </row>
     <row r="50" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>6.1</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>7</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>12.3</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <v>58.6</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <v>13.6</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="7">
         <v>18.399999999999999</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <v>14</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="7">
         <v>8.4</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="7">
         <v>1.4</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="7">
         <v>26.6</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="7">
         <v>43.9</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P50" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q50" s="8">
+      <c r="P50" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q50" s="7">
         <v>6.9</v>
       </c>
-      <c r="R50" s="8">
+      <c r="R50" s="7">
         <v>6.7</v>
       </c>
-      <c r="S50" s="8">
+      <c r="S50" s="7">
         <v>27.1</v>
       </c>
-      <c r="T50" s="8">
+      <c r="T50" s="7">
         <v>35.799999999999997</v>
       </c>
-      <c r="U50" s="8">
+      <c r="U50" s="7">
         <v>10.6</v>
       </c>
-      <c r="V50" s="8">
+      <c r="V50" s="7">
         <v>11.2</v>
       </c>
-      <c r="W50" s="8">
+      <c r="W50" s="7">
         <v>15.5</v>
       </c>
-      <c r="X50" s="11"/>
+      <c r="X50" s="10"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="13">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="11"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="10"/>
     </row>
     <row r="52" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>2.5</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <v>9</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="7">
         <v>58.6</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <v>2.9</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="7">
         <v>2.7</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>0.7</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K52" s="8">
+      <c r="J52" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K52" s="7">
         <v>0.6</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="7">
         <v>0.2</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="7">
         <v>19.3</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="7">
         <v>2.1</v>
       </c>
-      <c r="P52" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="R52" s="8">
+      <c r="P52" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="R52" s="7">
         <v>6.1</v>
       </c>
-      <c r="S52" s="8">
+      <c r="S52" s="7">
         <v>4.2</v>
       </c>
-      <c r="T52" s="8">
+      <c r="T52" s="7">
         <v>13.8</v>
       </c>
-      <c r="U52" s="8">
+      <c r="U52" s="7">
         <v>6</v>
       </c>
-      <c r="V52" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="W52" s="8">
+      <c r="V52" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="W52" s="7">
         <v>10.4</v>
       </c>
-      <c r="X52" s="11"/>
+      <c r="X52" s="10"/>
     </row>
     <row r="53" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="13">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>2.7</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>2.4</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <v>1</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="7">
         <v>0</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="7">
         <v>12.1</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>5</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="L53" s="8">
+      <c r="J53" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L53" s="7">
         <v>2.4</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="7">
         <v>1.5</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="7">
         <v>16.5</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="7">
         <v>2</v>
       </c>
-      <c r="P53" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q53" s="8">
+      <c r="P53" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q53" s="7">
         <v>0.6</v>
       </c>
-      <c r="R53" s="8">
+      <c r="R53" s="7">
         <v>0.3</v>
       </c>
-      <c r="S53" s="8">
+      <c r="S53" s="7">
         <v>10.3</v>
       </c>
-      <c r="T53" s="8">
+      <c r="T53" s="7">
         <v>3.9</v>
       </c>
-      <c r="U53" s="8">
+      <c r="U53" s="7">
         <v>0.2</v>
       </c>
-      <c r="V53" s="8">
+      <c r="V53" s="7">
         <v>0.9</v>
       </c>
-      <c r="W53" s="8">
+      <c r="W53" s="7">
         <v>1.6</v>
       </c>
-      <c r="X53" s="11"/>
+      <c r="X53" s="10"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="10"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>85310.9</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>33826.6</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>113974.1</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <v>33834.400000000001</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <v>74811.199999999997</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="7">
         <v>112321.3</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>287430.90000000002</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="7">
         <v>64459.199999999997</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="7">
         <v>138190.9</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="7">
         <v>87459.8</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="7">
         <v>48024.2</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="7">
         <v>21735.200000000001</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="7">
         <v>113450.6</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="7">
         <v>22281.9</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="7">
         <v>30421.8</v>
       </c>
-      <c r="R55" s="8">
+      <c r="R55" s="7">
         <v>21139.5</v>
       </c>
-      <c r="S55" s="8">
+      <c r="S55" s="7">
         <v>36564.300000000003</v>
       </c>
-      <c r="T55" s="8">
+      <c r="T55" s="7">
         <v>29111.4</v>
       </c>
-      <c r="U55" s="8">
+      <c r="U55" s="7">
         <v>278881.7</v>
       </c>
-      <c r="V55" s="8">
+      <c r="V55" s="7">
         <v>111376</v>
       </c>
-      <c r="W55" s="8">
+      <c r="W55" s="7">
         <v>67729.8</v>
       </c>
-      <c r="X55" s="11"/>
+      <c r="X55" s="10"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>19441.599999999999</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>6208.6</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="7">
         <v>8439.7999999999993</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <v>3175</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <v>6528.3</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <v>18844.400000000001</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>13814.2</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="7">
         <v>11879.3</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="7">
         <v>22822.1</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="7">
         <v>14183.1</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="7">
         <v>7454.7</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="7">
         <v>3407.1</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O56" s="7">
         <v>14316.9</v>
       </c>
-      <c r="P56" s="8">
+      <c r="P56" s="7">
         <v>3281.6</v>
       </c>
-      <c r="Q56" s="8">
+      <c r="Q56" s="7">
         <v>3774.8</v>
       </c>
-      <c r="R56" s="8">
+      <c r="R56" s="7">
         <v>2089.8000000000002</v>
       </c>
-      <c r="S56" s="8">
+      <c r="S56" s="7">
         <v>4687.8</v>
       </c>
-      <c r="T56" s="8">
+      <c r="T56" s="7">
         <v>4825.8</v>
       </c>
-      <c r="U56" s="8">
+      <c r="U56" s="7">
         <v>31888.7</v>
       </c>
-      <c r="V56" s="8">
+      <c r="V56" s="7">
         <v>31978.400000000001</v>
       </c>
-      <c r="W56" s="8">
+      <c r="W56" s="7">
         <v>9630.6</v>
       </c>
-      <c r="X56" s="11"/>
+      <c r="X56" s="10"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>34.299999999999997</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>54.6</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>33.1</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7">
         <v>45.7</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="7">
         <v>56</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="7">
         <v>41.7</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>33.200000000000003</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="7">
         <v>29.5</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="7">
         <v>40.4</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="7">
         <v>41.6</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="7">
         <v>32.200000000000003</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="7">
         <v>41.7</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="7">
         <v>43.8</v>
       </c>
-      <c r="P57" s="8">
+      <c r="P57" s="7">
         <v>32.6</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="7">
         <v>45.7</v>
       </c>
-      <c r="R57" s="8">
+      <c r="R57" s="7">
         <v>44.3</v>
       </c>
-      <c r="S57" s="8">
+      <c r="S57" s="7">
         <v>49.7</v>
       </c>
-      <c r="T57" s="8">
+      <c r="T57" s="7">
         <v>50.7</v>
       </c>
-      <c r="U57" s="8">
+      <c r="U57" s="7">
         <v>43.2</v>
       </c>
-      <c r="V57" s="8">
+      <c r="V57" s="7">
         <v>25.1</v>
       </c>
-      <c r="W57" s="8">
+      <c r="W57" s="7">
         <v>43.6</v>
       </c>
-      <c r="X57" s="11"/>
+      <c r="X57" s="10"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="13">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>6.3</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>21.6</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>4.8</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="7">
         <v>11.6</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <v>14.4</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="7">
         <v>12.2</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>5.3</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="7">
         <v>3.5</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L58" s="7">
         <v>10.5</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="7">
         <v>10.8</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="7">
         <v>12.8</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58" s="7">
         <v>14</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P58" s="7">
         <v>2.9</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="Q58" s="7">
         <v>11.4</v>
       </c>
-      <c r="R58" s="8">
+      <c r="R58" s="7">
         <v>13.6</v>
       </c>
-      <c r="S58" s="8">
+      <c r="S58" s="7">
         <v>23.7</v>
       </c>
-      <c r="T58" s="8">
+      <c r="T58" s="7">
         <v>13.9</v>
       </c>
-      <c r="U58" s="8">
+      <c r="U58" s="7">
         <v>12.2</v>
       </c>
-      <c r="V58" s="8">
+      <c r="V58" s="7">
         <v>5.4</v>
       </c>
-      <c r="W58" s="8">
+      <c r="W58" s="7">
         <v>15.3</v>
       </c>
-      <c r="X58" s="11"/>
+      <c r="X58" s="10"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="13">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="10"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="13">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>10915</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>3852</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="7">
         <v>7311</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="7">
         <v>3792</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="7">
         <v>3600</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="7">
         <v>10254</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <v>7465</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="7">
         <v>9726</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="7">
         <v>12966</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L60" s="7">
         <v>3683</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="7">
         <v>8973</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="7">
         <v>1936</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O60" s="7">
         <v>10427</v>
       </c>
-      <c r="P60" s="8">
+      <c r="P60" s="7">
         <v>5426</v>
       </c>
-      <c r="Q60" s="8">
+      <c r="Q60" s="7">
         <v>3610</v>
       </c>
-      <c r="R60" s="8">
+      <c r="R60" s="7">
         <v>3200</v>
       </c>
-      <c r="S60" s="8">
+      <c r="S60" s="7">
         <v>5342</v>
       </c>
-      <c r="T60" s="8">
+      <c r="T60" s="7">
         <v>3309</v>
       </c>
-      <c r="U60" s="8">
+      <c r="U60" s="7">
         <v>11767</v>
       </c>
-      <c r="V60" s="8">
+      <c r="V60" s="7">
         <v>4600</v>
       </c>
-      <c r="W60" s="8">
+      <c r="W60" s="7">
         <v>2985</v>
       </c>
-      <c r="X60" s="11"/>
+      <c r="X60" s="10"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="13">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>277</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="11"/>
+        <v>274</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="10"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="11"/>
+        <v>275</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="10"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="13">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="R63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S63" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="T63" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="U63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V63" s="8">
+      <c r="C63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="V63" s="7">
         <v>145.6</v>
       </c>
-      <c r="W63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="X63" s="11"/>
+      <c r="W63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="X63" s="10"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="13">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>41789.4</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>18887.400000000001</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="7">
         <v>28643.1</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="7">
         <v>10704.1</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <v>30967.9</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="7">
         <v>45783.5</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <v>31152.5</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M64" s="8">
+      <c r="J64" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M64" s="7">
         <v>22893.4</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="7">
         <v>13335.9</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="7">
         <v>48407.5</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="7">
         <v>10446.799999999999</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="7">
         <v>26915.200000000001</v>
       </c>
-      <c r="R64" s="8">
+      <c r="R64" s="7">
         <v>5865.5</v>
       </c>
-      <c r="S64" s="8">
+      <c r="S64" s="7">
         <v>9838.6</v>
       </c>
-      <c r="T64" s="8">
+      <c r="T64" s="7">
         <v>21116.400000000001</v>
       </c>
-      <c r="U64" s="8">
+      <c r="U64" s="7">
         <v>19100.900000000001</v>
       </c>
-      <c r="V64" s="8">
+      <c r="V64" s="7">
         <v>53994.2</v>
       </c>
-      <c r="W64" s="8">
+      <c r="W64" s="7">
         <v>49291.6</v>
       </c>
-      <c r="X64" s="11"/>
+      <c r="X64" s="10"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="13">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>7954.1</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>1167.7</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="7">
         <v>2696.1</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="7">
         <v>1609.3</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="7">
         <v>3690.5</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="7">
         <v>24404.7</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <v>5940</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M65" s="7">
+        <v>5959.2</v>
+      </c>
+      <c r="N65" s="7">
+        <v>2200</v>
+      </c>
+      <c r="O65" s="7">
+        <v>24728.9</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="Q65" s="7">
+        <v>4791.7</v>
+      </c>
+      <c r="R65" s="7">
+        <v>1841.8</v>
+      </c>
+      <c r="S65" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L65" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="M65" s="8">
-        <v>5959.2</v>
-      </c>
-      <c r="N65" s="8">
-        <v>2200</v>
-      </c>
-      <c r="O65" s="8">
-        <v>24728.9</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q65" s="8">
-        <v>4791.7</v>
-      </c>
-      <c r="R65" s="8">
-        <v>1841.8</v>
-      </c>
-      <c r="S65" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="T65" s="8">
+      <c r="T65" s="7">
         <v>2206.8000000000002</v>
       </c>
-      <c r="U65" s="8">
+      <c r="U65" s="7">
         <v>4679.2</v>
       </c>
-      <c r="V65" s="8">
+      <c r="V65" s="7">
         <v>2699.6</v>
       </c>
-      <c r="W65" s="8">
+      <c r="W65" s="7">
         <v>2538.8000000000002</v>
       </c>
-      <c r="X65" s="11"/>
+      <c r="X65" s="10"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="13">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="T66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="U66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="V66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="W66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="X66" s="11"/>
+      <c r="C66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="X66" s="10"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="A67" s="13">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="10"/>
     </row>
     <row r="68" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="A68" s="13">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>4016.3</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E68" s="8">
+      <c r="D68" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="7">
         <v>10578.9</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G68" s="8">
+      <c r="F68" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G68" s="7">
         <v>1438.3</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="7">
         <v>3075.9</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <v>2034.5</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="7">
         <v>527.20000000000005</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="7">
         <v>4426.2</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L68" s="7">
         <v>76.900000000000006</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="7">
         <v>11934.7</v>
       </c>
-      <c r="N68" s="8">
+      <c r="N68" s="7">
         <v>853.9</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O68" s="7">
         <v>5674.9</v>
       </c>
-      <c r="P68" s="8">
+      <c r="P68" s="7">
         <v>640.6</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="Q68" s="7">
         <v>4443.6000000000004</v>
       </c>
-      <c r="R68" s="8">
+      <c r="R68" s="7">
         <v>576.5</v>
       </c>
-      <c r="S68" s="8">
+      <c r="S68" s="7">
         <v>1676</v>
       </c>
-      <c r="T68" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="U68" s="8">
+      <c r="T68" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="U68" s="7">
         <v>5767.3</v>
       </c>
-      <c r="V68" s="8">
+      <c r="V68" s="7">
         <v>1329.3</v>
       </c>
-      <c r="W68" s="8">
+      <c r="W68" s="7">
         <v>735.6</v>
       </c>
-      <c r="X68" s="11"/>
+      <c r="X68" s="10"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="A69" s="13">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>664.8</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>398.5</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="7">
         <v>267.2</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="7">
         <v>12.4</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="7">
         <v>36.1</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="7">
         <v>90.5</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>363</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="7">
         <v>343</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="7">
         <v>242.3</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L69" s="7">
         <v>97.6</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M69" s="7">
         <v>265.5</v>
       </c>
-      <c r="N69" s="8">
+      <c r="N69" s="7">
         <v>33.700000000000003</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O69" s="7">
         <v>89.8</v>
       </c>
-      <c r="P69" s="8">
+      <c r="P69" s="7">
         <v>199.6</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q69" s="7">
         <v>171.7</v>
       </c>
-      <c r="R69" s="8">
+      <c r="R69" s="7">
         <v>240</v>
       </c>
-      <c r="S69" s="8">
+      <c r="S69" s="7">
         <v>118.6</v>
       </c>
-      <c r="T69" s="8">
+      <c r="T69" s="7">
         <v>62.8</v>
       </c>
-      <c r="U69" s="8">
+      <c r="U69" s="7">
         <v>293.60000000000002</v>
       </c>
-      <c r="V69" s="8">
+      <c r="V69" s="7">
         <v>147.1</v>
       </c>
-      <c r="W69" s="8">
+      <c r="W69" s="7">
         <v>37.200000000000003</v>
       </c>
-      <c r="X69" s="11"/>
+      <c r="X69" s="10"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="13">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>11638</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>3659</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="7">
         <v>4706</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="7">
         <v>208</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="7">
         <v>409</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="7">
         <v>1565</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <v>5667</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="7">
         <v>7252</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="7">
         <v>4523</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L70" s="7">
         <v>1978</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M70" s="7">
         <v>4783</v>
       </c>
-      <c r="N70" s="8">
+      <c r="N70" s="7">
         <v>601</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O70" s="7">
         <v>1680</v>
       </c>
-      <c r="P70" s="8">
+      <c r="P70" s="7">
         <v>4006</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="Q70" s="7">
         <v>2968</v>
       </c>
-      <c r="R70" s="8">
+      <c r="R70" s="7">
         <v>3843</v>
       </c>
-      <c r="S70" s="8">
+      <c r="S70" s="7">
         <v>2033</v>
       </c>
-      <c r="T70" s="8">
+      <c r="T70" s="7">
         <v>899</v>
       </c>
-      <c r="U70" s="8">
+      <c r="U70" s="7">
         <v>4966</v>
       </c>
-      <c r="V70" s="8">
+      <c r="V70" s="7">
         <v>2869</v>
       </c>
-      <c r="W70" s="8">
+      <c r="W70" s="7">
         <v>704</v>
       </c>
-      <c r="X70" s="11"/>
+      <c r="X70" s="10"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="A71" s="13">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="10"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="A72" s="13">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>770</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>250</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="7">
         <v>960</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G72" s="8">
+      <c r="F72" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G72" s="7">
         <v>280</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="7">
         <v>800</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="7">
         <v>1165</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="7">
         <v>955</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="7">
         <v>935</v>
       </c>
-      <c r="L72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M72" s="8">
+      <c r="L72" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M72" s="7">
         <v>765</v>
       </c>
-      <c r="N72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="O72" s="8">
+      <c r="N72" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O72" s="7">
         <v>990</v>
       </c>
-      <c r="P72" s="8">
+      <c r="P72" s="7">
         <v>610</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="Q72" s="7">
         <v>460</v>
       </c>
-      <c r="R72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S72" s="8">
+      <c r="R72" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="S72" s="7">
         <v>320</v>
       </c>
-      <c r="T72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="U72" s="8">
+      <c r="T72" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="U72" s="7">
         <v>732</v>
       </c>
-      <c r="V72" s="8">
+      <c r="V72" s="7">
         <v>240</v>
       </c>
-      <c r="W72" s="8">
+      <c r="W72" s="7">
         <v>220</v>
       </c>
-      <c r="X72" s="11"/>
+      <c r="X72" s="10"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+      <c r="A73" s="13">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>3025</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I73" s="8">
+      <c r="D73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I73" s="7">
         <v>1600</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="7">
         <v>100</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="7">
         <v>150</v>
       </c>
-      <c r="L73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="R73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="T73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="U73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V73" s="8">
+      <c r="L73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="R73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="T73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="U73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="V73" s="7">
         <v>1100</v>
       </c>
-      <c r="W73" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="X73" s="11"/>
+      <c r="W73" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="X73" s="10"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="A74" s="13">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E74" s="8">
+      <c r="C74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E74" s="7">
         <v>50</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="T74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="U74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="W74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="X74" s="11"/>
+      <c r="F74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="U74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="V74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="W74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="X74" s="10"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+      <c r="A75" s="13">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>100</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M75" s="8">
+      <c r="D75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M75" s="7">
         <v>50</v>
       </c>
-      <c r="N75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="R75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="T75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="U75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="V75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="W75" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="X75" s="11"/>
+      <c r="N75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="R75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="T75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="U75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="V75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="W75" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="X75" s="10"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+      <c r="A76" s="13">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="11"/>
+        <v>278</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="10"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+      <c r="A77" s="13">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>52673.9</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>5377.6</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="7">
         <v>26926</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="7">
         <v>5630.8</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <v>12808.4</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="7">
         <v>27043.200000000001</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="7">
         <v>29900.3</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="7">
         <v>12928.3</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="7">
         <v>120393.60000000001</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="7">
         <v>21920.799999999999</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M77" s="7">
         <v>6834</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="7">
         <v>14691.1</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="7">
         <v>18482.5</v>
       </c>
-      <c r="P77" s="8">
+      <c r="P77" s="7">
         <v>5654</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="Q77" s="7">
         <v>10295.5</v>
       </c>
-      <c r="R77" s="8">
+      <c r="R77" s="7">
         <v>18916.099999999999</v>
       </c>
-      <c r="S77" s="8">
+      <c r="S77" s="7">
         <v>11710.5</v>
       </c>
-      <c r="T77" s="8">
+      <c r="T77" s="7">
         <v>9503.5</v>
       </c>
-      <c r="U77" s="8">
+      <c r="U77" s="7">
         <v>87126.399999999994</v>
       </c>
-      <c r="V77" s="8">
+      <c r="V77" s="7">
         <v>20295.400000000001</v>
       </c>
-      <c r="W77" s="8">
+      <c r="W77" s="7">
         <v>12111.2</v>
       </c>
-      <c r="X77" s="11"/>
+      <c r="X77" s="10"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+      <c r="A78" s="13">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>93.3</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>100.6</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="7">
         <v>93.8</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="7">
         <v>62.9</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <v>113.9</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="7">
         <v>94.7</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="7">
         <v>146.69999999999999</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="7">
         <v>86.4</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K78" s="7">
         <v>55.2</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78" s="7">
         <v>89.4</v>
       </c>
-      <c r="M78" s="8">
+      <c r="M78" s="7">
         <v>117.7</v>
       </c>
-      <c r="N78" s="8">
+      <c r="N78" s="7">
         <v>109.5</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O78" s="7">
         <v>95.4</v>
       </c>
-      <c r="P78" s="8">
+      <c r="P78" s="7">
         <v>96.7</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="Q78" s="7">
         <v>103.9</v>
       </c>
-      <c r="R78" s="8">
+      <c r="R78" s="7">
         <v>85.9</v>
       </c>
-      <c r="S78" s="8">
+      <c r="S78" s="7">
         <v>101.1</v>
       </c>
-      <c r="T78" s="8">
+      <c r="T78" s="7">
         <v>127.8</v>
       </c>
-      <c r="U78" s="8">
+      <c r="U78" s="7">
         <v>112</v>
       </c>
-      <c r="V78" s="8">
+      <c r="V78" s="7">
         <v>93.4</v>
       </c>
-      <c r="W78" s="8">
+      <c r="W78" s="7">
         <v>91</v>
       </c>
-      <c r="X78" s="11"/>
+      <c r="X78" s="10"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+      <c r="A79" s="13">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>1235.5999999999999</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>650</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="7">
         <v>7384</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="7">
         <v>700</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="7">
         <v>510.8</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="7">
         <v>640.9</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="7">
         <v>1833.5</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="7">
         <v>992.6</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K79" s="7">
         <v>1547.2</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L79" s="7">
         <v>584.6</v>
       </c>
-      <c r="M79" s="8">
+      <c r="M79" s="7">
         <v>821.6</v>
       </c>
-      <c r="N79" s="8">
+      <c r="N79" s="7">
         <v>289.5</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O79" s="7">
         <v>1193.0999999999999</v>
       </c>
-      <c r="P79" s="8">
+      <c r="P79" s="7">
         <v>261.39999999999998</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="Q79" s="7">
         <v>438</v>
       </c>
-      <c r="R79" s="8">
+      <c r="R79" s="7">
         <v>500</v>
       </c>
-      <c r="S79" s="8">
+      <c r="S79" s="7">
         <v>486</v>
       </c>
-      <c r="T79" s="8">
+      <c r="T79" s="7">
         <v>543.20000000000005</v>
       </c>
-      <c r="U79" s="8">
+      <c r="U79" s="7">
         <v>17660.099999999999</v>
       </c>
-      <c r="V79" s="8">
+      <c r="V79" s="7">
         <v>480</v>
       </c>
-      <c r="W79" s="8">
+      <c r="W79" s="7">
         <v>884.1</v>
       </c>
-      <c r="X79" s="11"/>
+      <c r="X79" s="10"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="A80" s="13">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <v>56</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="8">
+      <c r="D80" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="7">
         <v>84.7</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" s="8">
+      <c r="F80" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="7">
         <v>85.5</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="7">
         <v>98.8</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="7">
         <v>141.9</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="7">
         <v>115.9</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80" s="7">
         <v>99.7</v>
       </c>
-      <c r="L80" s="8">
+      <c r="L80" s="7">
         <v>89.1</v>
       </c>
-      <c r="M80" s="8">
+      <c r="M80" s="7">
         <v>91.8</v>
       </c>
-      <c r="N80" s="8">
+      <c r="N80" s="7">
         <v>79.3</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O80" s="7">
         <v>94.5</v>
       </c>
-      <c r="P80" s="8">
+      <c r="P80" s="7">
         <v>59.4</v>
       </c>
-      <c r="Q80" s="8">
+      <c r="Q80" s="7">
         <v>92.2</v>
       </c>
-      <c r="R80" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="S80" s="8">
+      <c r="R80" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S80" s="7">
         <v>89.1</v>
       </c>
-      <c r="T80" s="8">
+      <c r="T80" s="7">
         <v>138.80000000000001</v>
       </c>
-      <c r="U80" s="8">
+      <c r="U80" s="7">
         <v>102.6</v>
       </c>
-      <c r="V80" s="8">
+      <c r="V80" s="7">
         <v>87.7</v>
       </c>
-      <c r="W80" s="8">
+      <c r="W80" s="7">
         <v>94.3</v>
       </c>
-      <c r="X80" s="11"/>
+      <c r="X80" s="10"/>
     </row>
     <row r="81" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/migforecasting/cities15-16/1/d11.xlsx
+++ b/migforecasting/cities15-16/1/d11.xlsx
@@ -813,10 +813,6 @@
     <t>Щелково</t>
   </si>
   <si>
-    <t>Сергиев 
-Посад</t>
-  </si>
-  <si>
     <r>
       <t>12473,5</t>
     </r>
@@ -1192,6 +1188,9 @@
   </si>
   <si>
     <t>Электросталь</t>
+  </si>
+  <si>
+    <t>Сергиев Посад</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1649,7 @@
   <dimension ref="A1:AD81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1736,7 @@
         <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O2" t="s">
         <v>234</v>
@@ -1746,13 +1745,13 @@
         <v>235</v>
       </c>
       <c r="Q2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R2" t="s">
         <v>236</v>
       </c>
       <c r="S2" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="T2" t="s">
         <v>237</v>
@@ -1764,7 +1763,7 @@
         <v>239</v>
       </c>
       <c r="W2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -3086,10 +3085,10 @@
         <v>229</v>
       </c>
       <c r="N21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>229</v>
@@ -3101,7 +3100,7 @@
         <v>229</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>229</v>
@@ -3227,25 +3226,25 @@
         <v>176</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N23" s="7">
         <v>23.3</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="R23" s="7">
         <v>28.6</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T23" s="7">
         <v>26.4</v>
@@ -3254,7 +3253,7 @@
         <v>31.1</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W23" s="7">
         <v>21.4</v>
@@ -3579,7 +3578,7 @@
         <v>480</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>229</v>
@@ -3752,7 +3751,7 @@
         <v>1226</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>229</v>
@@ -3929,7 +3928,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -3960,13 +3959,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D36" s="7">
         <v>0.5</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7">
         <v>0.7</v>
@@ -3996,7 +3995,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>229</v>
@@ -4170,7 +4169,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -4201,13 +4200,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D40" s="7">
         <v>1.9</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F40" s="7">
         <v>1.1000000000000001</v>
@@ -4237,7 +4236,7 @@
         <v>2.8</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>136</v>
@@ -4509,10 +4508,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E45" s="7">
         <v>19671</v>
@@ -4530,7 +4529,7 @@
         <v>315</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K45" s="7">
         <v>801</v>
@@ -4539,7 +4538,7 @@
         <v>1947</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N45" s="7">
         <v>67</v>
@@ -4551,7 +4550,7 @@
         <v>106</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R45" s="7">
         <v>238</v>
@@ -4719,7 +4718,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -4859,7 +4858,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q50" s="7">
         <v>6.9</v>
@@ -4939,7 +4938,7 @@
         <v>0.7</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K52" s="7">
         <v>0.6</v>
@@ -4957,10 +4956,10 @@
         <v>2.1</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R52" s="7">
         <v>6.1</v>
@@ -4975,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W52" s="7">
         <v>10.4</v>
@@ -5009,10 +5008,10 @@
         <v>5</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L53" s="7">
         <v>2.4</v>
@@ -5027,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q53" s="7">
         <v>0.6</v>
@@ -5058,7 +5057,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -5369,7 +5368,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -5470,7 +5469,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -5501,7 +5500,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -5532,67 +5531,67 @@
         <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V63" s="7">
         <v>145.6</v>
       </c>
       <c r="W63" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X63" s="10"/>
     </row>
@@ -5623,13 +5622,13 @@
         <v>31152.5</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M64" s="7">
         <v>22893.4</v>
@@ -5693,13 +5692,13 @@
         <v>5940</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M65" s="7">
         <v>5959.2</v>
@@ -5711,7 +5710,7 @@
         <v>24728.9</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q65" s="7">
         <v>4791.7</v>
@@ -5720,7 +5719,7 @@
         <v>1841.8</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T65" s="7">
         <v>2206.8000000000002</v>
@@ -5812,7 +5811,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -5846,13 +5845,13 @@
         <v>4016.3</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E68" s="7">
         <v>10578.9</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G68" s="7">
         <v>1438.3</v>
@@ -5894,7 +5893,7 @@
         <v>1676</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U68" s="7">
         <v>5767.3</v>
@@ -6053,7 +6052,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -6093,7 +6092,7 @@
         <v>960</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G72" s="7">
         <v>280</v>
@@ -6111,13 +6110,13 @@
         <v>935</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M72" s="7">
         <v>765</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O72" s="7">
         <v>990</v>
@@ -6129,13 +6128,13 @@
         <v>460</v>
       </c>
       <c r="R72" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S72" s="7">
         <v>320</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U72" s="7">
         <v>732</v>
@@ -6157,19 +6156,19 @@
         <v>3025</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I73" s="7">
         <v>1600</v>
@@ -6181,40 +6180,40 @@
         <v>150</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V73" s="7">
         <v>1100</v>
       </c>
       <c r="W73" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X73" s="10"/>
     </row>
@@ -6224,67 +6223,67 @@
         <v>72</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E74" s="7">
         <v>50</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W74" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X74" s="10"/>
     </row>
@@ -6297,64 +6296,64 @@
         <v>100</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M75" s="7">
         <v>50</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W75" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X75" s="10"/>
     </row>
@@ -6364,7 +6363,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
